--- a/intel_IP/IRIS/HW_IP/Interface/I2C/V1/I2C_EEPROM.xlsx
+++ b/intel_IP/IRIS/HW_IP/Interface/I2C/V1/I2C_EEPROM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_FPGA\intel_IP\IRIS\HW_IP\Interface\I2C\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_FPGA\intel_IP\IRIS\HW_IP\Interface\I2C\V1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E351ACCC-E672-4DA5-B63B-B868A7CDDA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E280993D-374B-4A41-B214-68401D889F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="START" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,8 @@
     <sheet name="NACK-&gt;STOP(新)" sheetId="10" r:id="rId8"/>
     <sheet name="ACK-&gt;STOP(原)" sheetId="9" r:id="rId9"/>
     <sheet name="ACK-&gt;STOP(新)" sheetId="12" r:id="rId10"/>
-    <sheet name="工作表1" sheetId="2" r:id="rId11"/>
+    <sheet name="ACK-&gt;STOP_延長" sheetId="13" r:id="rId11"/>
+    <sheet name="工作表1" sheetId="2" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="24">
   <si>
     <t>i2c_clk</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,6 +181,14 @@
   </si>
   <si>
     <t>SLOW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STOP0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STOP1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -470,12 +479,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -488,40 +491,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -531,21 +501,72 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -553,31 +574,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1124,6 +1127,292 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>438564</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>153273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>221399</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>199549</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{391D9BCF-9C7B-4694-8514-5ECACAD76007}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7658514" y="153273"/>
+          <a:ext cx="5878835" cy="2437051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>348130</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>164823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>265871</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>183919</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB43D1BE-101B-4205-ACD1-1727AB4D09C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9396880" y="2793723"/>
+          <a:ext cx="3575341" cy="2400346"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>215346</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>107673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57978</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>107673</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F02D632C-7ACD-447E-A261-DBC498F00ACD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4006296" y="2498448"/>
+          <a:ext cx="1366632" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289891</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>74543</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2940325" cy="580287"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="文字方塊 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1605C2AF-51F2-4C76-853C-2F7A24998FEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6369326" y="2965173"/>
+          <a:ext cx="2940325" cy="580287"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>新的設計裡在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>STOP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>前進入</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>Set Low (SLOW)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>再進入</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>STOP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>可以有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t>STOP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+              <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+            </a:rPr>
+            <a:t> 波形</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1370,8 +1659,8 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>142634</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="9" name="筆跡 8">
@@ -1390,7 +1679,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="9" name="筆跡 8">
@@ -1810,8 +2099,8 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>94526</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="10" name="筆跡 9">
@@ -1830,7 +2119,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="10" name="筆跡 9">
@@ -2084,8 +2373,8 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>94526</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="4" name="筆跡 3">
@@ -2104,7 +2393,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="4" name="筆跡 3">
@@ -2520,8 +2809,8 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>94526</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="4" name="筆跡 3">
@@ -2540,7 +2829,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="4" name="筆跡 3">
@@ -2849,8 +3138,8 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>94526</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="4" name="筆跡 3">
@@ -2869,7 +3158,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="4" name="筆跡 3">
@@ -4065,7 +4354,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">187 42 296 0 0,'-25'4'3763'0'0,"14"-4"-2719"0"0,15-23 471 0 0,-10 7 4808 0 0,1 10-4278 0 0,3 8 480 0 0,3 12-2458 0 0,1 0 0 0 0,0 0 0 0 0,6 19 0 0 0,3 24 34 0 0,1-5 46 0 0,-9-42-90 0 0,0 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 16 1 0 0,-3 25 355 0 0,7 25 73 0 0,-5-62-351 0 0,0 0-1 0 0,-2-1 0 0 0,1 1 1 0 0,-2 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,-1-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,-10 20-1 0 0,11-21-77 0 0,0 0-1 0 0,1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,1 1-1 0 0,0 20 1 0 0,-2-17-64 0 0,0 9 84 0 0,5-12-2888 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1066.14">5 621 2224 0 0,'0'-7'3441'0'0,"0"-1"-1387"0"0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,-3-14 0 0 0,19 48 3093 0 0,8 14-5401 0 0,-15-24 251 0 0,0-1 0 0 0,1 0 0 0 0,19 25-1 0 0,17 27-40 0 0,-45-67 49 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,1-3 1596 0 0,11-5-1182 0 0,0-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,18-23 0 0 0,12-12-90 0 0,73-70 927 0 0,-108 111-1102 0 0,-6 9 81 0 0,0-4-221 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,2 0 0 0 0,-2-1-49 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-7 0-7419 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1066.13">5 621 2224 0 0,'0'-7'3441'0'0,"0"-1"-1387"0"0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,-3-14 0 0 0,19 48 3093 0 0,8 14-5401 0 0,-15-24 251 0 0,0-1 0 0 0,1 0 0 0 0,19 25-1 0 0,17 27-40 0 0,-45-67 49 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,1-3 1596 0 0,11-5-1182 0 0,0-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,18-23 0 0 0,12-12-90 0 0,73-70 927 0 0,-108 111-1102 0 0,-6 9 81 0 0,0-4-221 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,2 0 0 0 0,-2-1-49 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-7 0-7419 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -4462,26 +4751,26 @@
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="12" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15" t="s">
+      <c r="F4" s="29"/>
+      <c r="G4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
@@ -4530,12 +4819,12 @@
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
     </row>
@@ -4543,10 +4832,10 @@
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
     </row>
@@ -4578,7 +4867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FC2898-BB68-45B5-98A1-AF935A1EED03}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -4606,21 +4895,21 @@
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="28" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="12" t="s">
+      <c r="F4" s="39"/>
+      <c r="G4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="12" t="s">
+      <c r="H4" s="29"/>
+      <c r="I4" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="14"/>
+      <c r="J4" s="29"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
@@ -4640,15 +4929,15 @@
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="30">
+      <c r="B8" s="17"/>
+      <c r="C8" s="35">
         <v>0</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30">
+      <c r="D8" s="35"/>
+      <c r="E8" s="35">
         <v>0</v>
       </c>
-      <c r="F8" s="30"/>
+      <c r="F8" s="35"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="6" t="s">
@@ -4662,8 +4951,8 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="34"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="21"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
@@ -4676,49 +4965,49 @@
       <c r="F12" s="4"/>
       <c r="G12" s="5"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="30">
         <v>1</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="31">
+      <c r="C14" s="31"/>
+      <c r="D14" s="18">
         <v>0</v>
       </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="41" t="s">
+      <c r="E14" s="21"/>
+      <c r="F14" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="48"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="26"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="30">
         <v>1</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="26">
+      <c r="C16" s="31"/>
+      <c r="D16" s="32">
         <v>0</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="23"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="16"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="6" t="s">
@@ -4728,19 +5017,215 @@
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="31"/>
+      <c r="F18" s="18"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC13EA0-F7F1-41B0-8F1B-D77FC521CEEE}">
+  <dimension ref="A1:N18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="5.7109375" style="3" customWidth="1"/>
+    <col min="5" max="16" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="19.5" thickBot="1">
+      <c r="A2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="6"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="39"/>
+      <c r="G4" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="29"/>
+      <c r="I4" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="29"/>
+      <c r="K4" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="29"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="35">
+        <v>0</v>
+      </c>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35">
+        <v>0</v>
+      </c>
+      <c r="F8" s="35"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="30">
+        <v>1</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="18">
+        <v>0</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="42"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="30">
+        <v>1</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32">
+        <v>0</v>
+      </c>
+      <c r="E16" s="37"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="K4:L4"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
@@ -4755,7 +5240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CECF59-7A63-4629-9204-C2D0CA3F3E3B}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4804,29 +5289,29 @@
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="29"/>
+      <c r="E4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="14"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="29"/>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="1" t="s">
@@ -4853,60 +5338,44 @@
       <c r="T6" s="4"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
+      <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="30">
+      <c r="E8" s="35">
         <v>7</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30">
+      <c r="F8" s="35"/>
+      <c r="G8" s="35">
         <v>6</v>
       </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30">
+      <c r="H8" s="35"/>
+      <c r="I8" s="35">
         <v>5</v>
       </c>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30">
+      <c r="J8" s="35"/>
+      <c r="K8" s="35">
         <v>4</v>
       </c>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30">
+      <c r="L8" s="35"/>
+      <c r="M8" s="35">
         <v>3</v>
       </c>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30">
+      <c r="N8" s="35"/>
+      <c r="O8" s="35">
         <v>2</v>
       </c>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30">
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35">
         <v>1</v>
       </c>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30">
+      <c r="R8" s="35"/>
+      <c r="S8" s="35">
         <v>0</v>
       </c>
-      <c r="T8" s="30"/>
+      <c r="T8" s="35"/>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="6" t="s">
@@ -4973,85 +5442,85 @@
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="17">
+      <c r="F14" s="34">
         <v>1</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="26">
+      <c r="G14" s="31"/>
+      <c r="H14" s="32">
         <v>0</v>
       </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="17">
+      <c r="I14" s="33"/>
+      <c r="J14" s="34">
         <v>1</v>
       </c>
-      <c r="K14" s="19"/>
-      <c r="L14" s="26">
+      <c r="K14" s="31"/>
+      <c r="L14" s="32">
         <v>0</v>
       </c>
-      <c r="M14" s="27"/>
-      <c r="N14" s="17">
+      <c r="M14" s="33"/>
+      <c r="N14" s="34">
         <v>1</v>
       </c>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18">
+      <c r="O14" s="30"/>
+      <c r="P14" s="30">
         <v>1</v>
       </c>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18">
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30">
         <v>1</v>
       </c>
-      <c r="S14" s="19"/>
-      <c r="T14" s="26">
+      <c r="S14" s="31"/>
+      <c r="T14" s="32">
         <v>0</v>
       </c>
-      <c r="U14" s="27"/>
+      <c r="U14" s="33"/>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="17">
+      <c r="F16" s="34">
         <v>1</v>
       </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="26">
+      <c r="G16" s="31"/>
+      <c r="H16" s="32">
         <v>0</v>
       </c>
-      <c r="I16" s="27"/>
-      <c r="J16" s="17">
+      <c r="I16" s="33"/>
+      <c r="J16" s="34">
         <v>1</v>
       </c>
-      <c r="K16" s="19"/>
-      <c r="L16" s="26">
+      <c r="K16" s="31"/>
+      <c r="L16" s="32">
         <v>0</v>
       </c>
-      <c r="M16" s="27"/>
-      <c r="N16" s="17">
+      <c r="M16" s="33"/>
+      <c r="N16" s="34">
         <v>1</v>
       </c>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18">
+      <c r="O16" s="30"/>
+      <c r="P16" s="30">
         <v>1</v>
       </c>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18">
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30">
         <v>1</v>
       </c>
-      <c r="S16" s="19"/>
-      <c r="T16" s="26">
+      <c r="S16" s="31"/>
+      <c r="T16" s="32">
         <v>0</v>
       </c>
-      <c r="U16" s="27"/>
+      <c r="U16" s="33"/>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="6" t="s">
@@ -5080,6 +5549,20 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="E4:T4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="R14:S14"/>
     <mergeCell ref="T14:U14"/>
@@ -5094,20 +5577,6 @@
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="E4:T4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5149,22 +5618,22 @@
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="28" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="29"/>
+      <c r="M4" s="39"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
@@ -5185,40 +5654,36 @@
       <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="35">
         <v>4</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30">
+      <c r="C8" s="35"/>
+      <c r="D8" s="35">
         <v>3</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30">
+      <c r="E8" s="35"/>
+      <c r="F8" s="35">
         <v>2</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30">
+      <c r="G8" s="35"/>
+      <c r="H8" s="35">
         <v>1</v>
       </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30">
+      <c r="I8" s="35"/>
+      <c r="J8" s="35">
         <v>0</v>
       </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30">
+      <c r="K8" s="35"/>
+      <c r="L8" s="35">
         <v>0</v>
       </c>
-      <c r="M8" s="30"/>
+      <c r="M8" s="35"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="6" t="s">
@@ -5261,58 +5726,58 @@
         <v>5</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="26">
+      <c r="C14" s="32">
         <v>0</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="17">
+      <c r="D14" s="33"/>
+      <c r="E14" s="34">
         <v>1</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18">
+      <c r="F14" s="30"/>
+      <c r="G14" s="30">
         <v>1</v>
       </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18">
+      <c r="H14" s="30"/>
+      <c r="I14" s="30">
         <v>1</v>
       </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="26">
+      <c r="J14" s="31"/>
+      <c r="K14" s="32">
         <v>0</v>
       </c>
-      <c r="L14" s="27"/>
-      <c r="M14" s="36" t="s">
+      <c r="L14" s="33"/>
+      <c r="M14" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="N14" s="37"/>
+      <c r="N14" s="41"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="26">
+      <c r="C16" s="32">
         <v>0</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="17">
+      <c r="D16" s="33"/>
+      <c r="E16" s="34">
         <v>1</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18">
+      <c r="F16" s="30"/>
+      <c r="G16" s="30">
         <v>1</v>
       </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18">
+      <c r="H16" s="30"/>
+      <c r="I16" s="30">
         <v>1</v>
       </c>
-      <c r="J16" s="19"/>
-      <c r="K16" s="26">
+      <c r="J16" s="31"/>
+      <c r="K16" s="32">
         <v>0</v>
       </c>
-      <c r="L16" s="25"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="6" t="s">
@@ -5329,17 +5794,11 @@
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="34"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
@@ -5347,6 +5806,12 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="G14:H14"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
     <mergeCell ref="B4:K4"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
@@ -5394,24 +5859,24 @@
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="28" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="29"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="43"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="23"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
@@ -5432,40 +5897,36 @@
       <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="35">
         <v>4</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30">
+      <c r="C8" s="35"/>
+      <c r="D8" s="35">
         <v>3</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30">
+      <c r="E8" s="35"/>
+      <c r="F8" s="35">
         <v>2</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30">
+      <c r="G8" s="35"/>
+      <c r="H8" s="35">
         <v>1</v>
       </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30">
+      <c r="I8" s="35"/>
+      <c r="J8" s="35">
         <v>0</v>
       </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30">
+      <c r="K8" s="35"/>
+      <c r="L8" s="35">
         <v>0</v>
       </c>
-      <c r="M8" s="30"/>
+      <c r="M8" s="35"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="6" t="s">
@@ -5508,58 +5969,58 @@
         <v>5</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="26">
+      <c r="C14" s="32">
         <v>0</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="17">
+      <c r="D14" s="33"/>
+      <c r="E14" s="34">
         <v>1</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18">
+      <c r="F14" s="30"/>
+      <c r="G14" s="30">
         <v>1</v>
       </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18">
+      <c r="H14" s="30"/>
+      <c r="I14" s="30">
         <v>1</v>
       </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="31">
+      <c r="J14" s="31"/>
+      <c r="K14" s="18">
         <v>0</v>
       </c>
-      <c r="L14" s="34"/>
-      <c r="M14" s="41" t="s">
+      <c r="L14" s="21"/>
+      <c r="M14" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="41"/>
+      <c r="N14" s="42"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="26">
+      <c r="C16" s="32">
         <v>0</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="17">
+      <c r="D16" s="33"/>
+      <c r="E16" s="34">
         <v>1</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18">
+      <c r="F16" s="30"/>
+      <c r="G16" s="30">
         <v>1</v>
       </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18">
+      <c r="H16" s="30"/>
+      <c r="I16" s="30">
         <v>1</v>
       </c>
-      <c r="J16" s="19"/>
-      <c r="K16" s="26">
+      <c r="J16" s="31"/>
+      <c r="K16" s="32">
         <v>0</v>
       </c>
-      <c r="L16" s="25"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="6" t="s">
@@ -5576,21 +6037,11 @@
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="34"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="M14:N14"/>
     <mergeCell ref="B4:K4"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="B8:C8"/>
@@ -5599,6 +6050,16 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="L8:M8"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5638,28 +6099,28 @@
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="14"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="29"/>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="1" t="s">
@@ -5690,46 +6151,46 @@
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="35">
         <v>0</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30">
+      <c r="C8" s="35"/>
+      <c r="D8" s="35">
         <v>7</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30">
+      <c r="E8" s="35"/>
+      <c r="F8" s="35">
         <v>6</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30">
+      <c r="G8" s="35"/>
+      <c r="H8" s="35">
         <v>5</v>
       </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30">
+      <c r="I8" s="35"/>
+      <c r="J8" s="35">
         <v>4</v>
       </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30">
+      <c r="K8" s="35"/>
+      <c r="L8" s="35">
         <v>3</v>
       </c>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30">
+      <c r="M8" s="35"/>
+      <c r="N8" s="35">
         <v>2</v>
       </c>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30">
+      <c r="O8" s="35"/>
+      <c r="P8" s="35">
         <v>1</v>
       </c>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30">
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35">
         <v>0</v>
       </c>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30">
+      <c r="S8" s="35"/>
+      <c r="T8" s="35">
         <v>0</v>
       </c>
-      <c r="U8" s="30"/>
+      <c r="U8" s="35"/>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="6" t="s">
@@ -5785,36 +6246,36 @@
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="41" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="41"/>
+      <c r="D14" s="42"/>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39" t="s">
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
       <c r="T16" s="45"/>
     </row>
     <row r="18" spans="1:21">
@@ -5822,7 +6283,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="5"/>
-      <c r="C18" s="31"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="4"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
@@ -5844,11 +6305,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="E16:T16"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
     <mergeCell ref="D4:S4"/>
     <mergeCell ref="T8:U8"/>
     <mergeCell ref="C14:D14"/>
@@ -5858,6 +6314,11 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E16:T16"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5899,24 +6360,24 @@
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="28" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="29"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="43"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="23"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
@@ -5937,40 +6398,36 @@
       <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="35">
         <v>4</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30">
+      <c r="C8" s="35"/>
+      <c r="D8" s="35">
         <v>3</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30">
+      <c r="E8" s="35"/>
+      <c r="F8" s="35">
         <v>2</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30">
+      <c r="G8" s="35"/>
+      <c r="H8" s="35">
         <v>1</v>
       </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30">
+      <c r="I8" s="35"/>
+      <c r="J8" s="35">
         <v>0</v>
       </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30">
+      <c r="K8" s="35"/>
+      <c r="L8" s="35">
         <v>0</v>
       </c>
-      <c r="M8" s="30"/>
+      <c r="M8" s="35"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="6" t="s">
@@ -6013,58 +6470,58 @@
         <v>5</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="26">
+      <c r="C14" s="32">
         <v>0</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="17">
+      <c r="D14" s="33"/>
+      <c r="E14" s="34">
         <v>1</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18">
+      <c r="F14" s="30"/>
+      <c r="G14" s="30">
         <v>1</v>
       </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18">
+      <c r="H14" s="30"/>
+      <c r="I14" s="30">
         <v>1</v>
       </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="31">
+      <c r="J14" s="31"/>
+      <c r="K14" s="18">
         <v>0</v>
       </c>
-      <c r="L14" s="32"/>
-      <c r="M14" s="37" t="s">
+      <c r="L14" s="19"/>
+      <c r="M14" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="37"/>
+      <c r="N14" s="41"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="26">
+      <c r="C16" s="32">
         <v>0</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="17">
+      <c r="D16" s="33"/>
+      <c r="E16" s="34">
         <v>1</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18">
+      <c r="F16" s="30"/>
+      <c r="G16" s="30">
         <v>1</v>
       </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18">
+      <c r="H16" s="30"/>
+      <c r="I16" s="30">
         <v>1</v>
       </c>
-      <c r="J16" s="19"/>
-      <c r="K16" s="26">
+      <c r="J16" s="31"/>
+      <c r="K16" s="32">
         <v>0</v>
       </c>
-      <c r="L16" s="25"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="6" t="s">
@@ -6081,21 +6538,11 @@
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="34"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
     <mergeCell ref="B4:K4"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="B8:C8"/>
@@ -6104,6 +6551,16 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="L8:M8"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="M14:N14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6144,17 +6601,17 @@
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="28" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="12" t="s">
+      <c r="F4" s="39"/>
+      <c r="G4" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="14"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
@@ -6173,15 +6630,15 @@
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="30">
+      <c r="B8" s="17"/>
+      <c r="C8" s="35">
         <v>0</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30">
+      <c r="D8" s="35"/>
+      <c r="E8" s="35">
         <v>0</v>
       </c>
-      <c r="F8" s="30"/>
+      <c r="F8" s="35"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="6" t="s">
@@ -6193,8 +6650,8 @@
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="25"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="37"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
@@ -6213,37 +6670,37 @@
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="30">
         <v>1</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="31">
+      <c r="C14" s="31"/>
+      <c r="D14" s="18">
         <v>0</v>
       </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="37" t="s">
+      <c r="E14" s="19"/>
+      <c r="F14" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="37"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="30">
         <v>1</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="26">
+      <c r="C16" s="31"/>
+      <c r="D16" s="32">
         <v>0</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="6" t="s">
@@ -6253,10 +6710,10 @@
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="31"/>
+      <c r="F18" s="18"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -6310,21 +6767,21 @@
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="28" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="12" t="s">
+      <c r="F4" s="39"/>
+      <c r="G4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="12" t="s">
+      <c r="H4" s="29"/>
+      <c r="I4" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="14"/>
+      <c r="J4" s="29"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
@@ -6344,15 +6801,15 @@
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="30">
+      <c r="B8" s="17"/>
+      <c r="C8" s="35">
         <v>0</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30">
+      <c r="D8" s="35"/>
+      <c r="E8" s="35">
         <v>0</v>
       </c>
-      <c r="F8" s="30"/>
+      <c r="F8" s="35"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="6" t="s">
@@ -6366,8 +6823,8 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="34"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="21"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
@@ -6380,49 +6837,49 @@
       <c r="F12" s="4"/>
       <c r="G12" s="5"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="30">
         <v>1</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="31">
+      <c r="C14" s="31"/>
+      <c r="D14" s="18">
         <v>0</v>
       </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="36" t="s">
+      <c r="E14" s="19"/>
+      <c r="F14" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="49"/>
-      <c r="H14" s="48"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="26"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="30">
         <v>1</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="26">
+      <c r="C16" s="31"/>
+      <c r="D16" s="32">
         <v>0</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="23"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="16"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="6" t="s">
@@ -6432,12 +6889,12 @@
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="31"/>
+      <c r="F18" s="18"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -6491,17 +6948,17 @@
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="28" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="12" t="s">
+      <c r="F4" s="39"/>
+      <c r="G4" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="14"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
@@ -6520,15 +6977,15 @@
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="30">
+      <c r="B8" s="17"/>
+      <c r="C8" s="35">
         <v>0</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30">
+      <c r="D8" s="35"/>
+      <c r="E8" s="35">
         <v>0</v>
       </c>
-      <c r="F8" s="30"/>
+      <c r="F8" s="35"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="6" t="s">
@@ -6540,8 +6997,8 @@
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="25"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="37"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
@@ -6560,37 +7017,37 @@
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="30">
         <v>1</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="31">
+      <c r="C14" s="31"/>
+      <c r="D14" s="18">
         <v>0</v>
       </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="41" t="s">
+      <c r="E14" s="21"/>
+      <c r="F14" s="42" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="47"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="30">
         <v>1</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="26">
+      <c r="C16" s="31"/>
+      <c r="D16" s="32">
         <v>0</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="6" t="s">
@@ -6600,10 +7057,10 @@
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="31"/>
+      <c r="F18" s="18"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="10">
